--- a/output/sites/clustering with PCs/clust_PCs_validity_measures_all_scats.xlsx
+++ b/output/sites/clustering with PCs/clust_PCs_validity_measures_all_scats.xlsx
@@ -410,25 +410,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.453</v>
+        <v>0.61</v>
       </c>
       <c r="E2" t="n">
-        <v>1.025</v>
+        <v>0.83</v>
       </c>
       <c r="F2" t="n">
-        <v>0.897</v>
+        <v>0.914</v>
       </c>
       <c r="G2" t="n">
-        <v>0.329</v>
+        <v>0.68</v>
       </c>
       <c r="H2" t="n">
-        <v>2.326</v>
+        <v>3.685</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +439,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.511</v>
+        <v>0.926</v>
       </c>
       <c r="E3" t="n">
-        <v>0.841</v>
+        <v>1.122</v>
       </c>
       <c r="F3" t="n">
-        <v>0.815</v>
+        <v>0.993</v>
       </c>
       <c r="G3" t="n">
-        <v>0.506</v>
+        <v>0.429</v>
       </c>
       <c r="H3" t="n">
-        <v>2.536</v>
+        <v>2.71</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -468,25 +468,25 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.453</v>
+        <v>0.741</v>
       </c>
       <c r="E4" t="n">
-        <v>0.784</v>
+        <v>0.848</v>
       </c>
       <c r="F4" t="n">
-        <v>0.791</v>
+        <v>0.844</v>
       </c>
       <c r="G4" t="n">
-        <v>0.394</v>
+        <v>0.629</v>
       </c>
       <c r="H4" t="n">
-        <v>1.746</v>
+        <v>3.447</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -497,25 +497,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0.954</v>
+        <v>0.61</v>
       </c>
       <c r="E5" t="n">
-        <v>0.981</v>
+        <v>1.828</v>
       </c>
       <c r="F5" t="n">
-        <v>0.917</v>
+        <v>1.803</v>
       </c>
       <c r="G5" t="n">
-        <v>0.605</v>
+        <v>0.198</v>
       </c>
       <c r="H5" t="n">
-        <v>3.322</v>
+        <v>3.112</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
